--- a/TestData/Staging/Web_POS/Billing/add_to_cart_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/add_to_cart_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\STAGING\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -478,8 +481,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A19">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -499,7 +502,7 @@
     <col min="14" max="14" width="10.71094" customWidth="1"/>
     <col min="15" max="15" width="10.71094" customWidth="1"/>
     <col min="16" max="16" width="19.14063" customWidth="1"/>
-    <col min="17" max="17" width="19.14063" customWidth="1"/>
+    <col min="17" max="17" width="24.42578" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.25" style="1" customWidth="1"/>
     <col min="19" max="19" width="22.5" style="1" customWidth="1"/>
     <col min="20" max="20" width="22.5" style="1" customWidth="1"/>
@@ -561,851 +564,908 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q2">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q3">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q5">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="3">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>9874563211</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="3">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q7">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="3">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>9874563211</v>
       </c>
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q9">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="3">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>9874563211</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q11">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>123456</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12" s="3">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q12">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>123456</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" s="3">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q13">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L14" s="3">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>9874563211</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L15" s="3">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q15">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" s="3">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>9874563211</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" s="3">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q17">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" s="3">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q18">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" s="3">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q19">
+        <v>3636363636</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -1419,6 +1479,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="2"/>
@@ -1431,6 +1492,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
+      <c r="Q21" s="2"/>
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="2"/>
@@ -1443,6 +1505,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
+      <c r="Q22" s="2"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" s="2"/>
@@ -1455,6 +1518,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
+      <c r="Q23" s="2"/>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" s="2"/>
@@ -1467,6 +1531,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
+      <c r="Q24" s="2"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -1483,6 +1548,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
+      <c r="Q25" s="2"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="2"/>
@@ -1495,6 +1561,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" s="2"/>
@@ -1507,6 +1574,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" ht="14.25">
       <c r="B28" s="2"/>
@@ -1519,6 +1587,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" ht="12.75">
       <c r="R29" s="4"/>
@@ -1569,12 +1638,13 @@
       <c r="F38" s="2"/>
       <c r="I38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
+      <c r="Q38" s="2"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -1588,12 +1658,13 @@
       <c r="F39" s="2"/>
       <c r="I39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
+      <c r="Q39" s="2"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="2"/>
@@ -1603,12 +1674,13 @@
       <c r="F40" s="2"/>
       <c r="I40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="2"/>
@@ -1618,12 +1690,13 @@
       <c r="F41" s="2"/>
       <c r="I41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
+      <c r="Q41" s="2"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="2"/>
@@ -1633,12 +1706,13 @@
       <c r="F42" s="2"/>
       <c r="I42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
+      <c r="Q42" s="2"/>
     </row>
     <row r="43" ht="14.25">
       <c r="B43" s="2"/>
@@ -1648,12 +1722,13 @@
       <c r="F43" s="2"/>
       <c r="I43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
+      <c r="Q43" s="2"/>
     </row>
     <row r="44" ht="14.25">
       <c r="B44" s="2"/>
@@ -1663,12 +1738,13 @@
       <c r="F44" s="2"/>
       <c r="I44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
+      <c r="Q44" s="2"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="2"/>
@@ -1678,12 +1754,13 @@
       <c r="F45" s="2"/>
       <c r="I45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
+      <c r="Q45" s="2"/>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" s="2"/>
@@ -1693,12 +1770,13 @@
       <c r="F46" s="2"/>
       <c r="I46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
+      <c r="Q46" s="2"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="2"/>
@@ -1708,12 +1786,13 @@
       <c r="F47" s="2"/>
       <c r="I47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
+      <c r="Q47" s="2"/>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="2"/>
@@ -1727,6 +1806,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
+      <c r="Q48" s="2"/>
     </row>
     <row r="49" ht="14.25">
       <c r="B49" s="2"/>
@@ -1740,6 +1820,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
+      <c r="Q49" s="2"/>
     </row>
     <row r="50" ht="14.25">
       <c r="B50" s="2"/>
@@ -1753,6 +1834,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
+      <c r="Q50" s="2"/>
     </row>
     <row r="51" ht="14.25">
       <c r="B51" s="2"/>
@@ -1766,6 +1848,7 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
+      <c r="Q51" s="2"/>
     </row>
     <row r="52" ht="14.25">
       <c r="B52" s="2"/>
@@ -1779,6 +1862,7 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
+      <c r="Q52" s="2"/>
     </row>
     <row r="53" ht="14.25">
       <c r="B53" s="2"/>
@@ -1792,6 +1876,7 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
+      <c r="Q53" s="2"/>
     </row>
     <row r="54" ht="14.25">
       <c r="B54" s="2"/>
@@ -1805,6 +1890,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
+      <c r="Q54" s="2"/>
     </row>
     <row r="55" ht="14.25">
       <c r="B55" s="2"/>
@@ -1818,6 +1904,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
+      <c r="Q55" s="2"/>
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="2"/>
@@ -1831,6 +1918,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
+      <c r="Q56" s="2"/>
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="2"/>
@@ -1844,6 +1932,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
+      <c r="Q57" s="2"/>
     </row>
     <row r="58" ht="14.25">
       <c r="B58" s="2"/>
@@ -1857,6 +1946,7 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" ht="14.25">
       <c r="B59" s="2"/>
@@ -1870,6 +1960,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
+      <c r="Q59" s="2"/>
     </row>
     <row r="60" ht="14.25">
       <c r="B60" s="2"/>
@@ -1883,6 +1974,7 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
+      <c r="Q60" s="2"/>
     </row>
     <row r="61" ht="14.25">
       <c r="B61" s="2"/>
@@ -1896,6 +1988,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
+      <c r="Q61" s="2"/>
     </row>
     <row r="62" ht="14.25">
       <c r="B62" s="2"/>
@@ -1909,6 +2002,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
+      <c r="Q62" s="2"/>
     </row>
     <row r="63" ht="14.25">
       <c r="B63" s="2"/>
@@ -1922,6 +2016,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
+      <c r="Q63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="J64"/>
@@ -1958,36 +2053,6 @@
       <c r="K70"/>
       <c r="L70"/>
     </row>
-    <row r="71" ht="12.75"/>
-    <row r="72" ht="12.75"/>
-    <row r="73" ht="12.75"/>
-    <row r="74" ht="12.75"/>
-    <row r="75" ht="12.75"/>
-    <row r="76" ht="12.75"/>
-    <row r="77" ht="12.75"/>
-    <row r="78" ht="12.75"/>
-    <row r="79" ht="12.75"/>
-    <row r="80" ht="12.75"/>
-    <row r="81" ht="12.75"/>
-    <row r="82" ht="12.75"/>
-    <row r="83" ht="12.75"/>
-    <row r="84" ht="12.75"/>
-    <row r="85" ht="12.75"/>
-    <row r="86" ht="12.75"/>
-    <row r="87" ht="12.75"/>
-    <row r="88" ht="12.75"/>
-    <row r="89" ht="12.75"/>
-    <row r="90" ht="12.75"/>
-    <row r="91" ht="12.75"/>
-    <row r="92" ht="12.75"/>
-    <row r="93" ht="12.75"/>
-    <row r="94" ht="12.75"/>
-    <row r="95" ht="12.75"/>
-    <row r="96" ht="12.75"/>
-    <row r="97" ht="12.75"/>
-    <row r="98" ht="12.75"/>
-    <row r="99" ht="12.75"/>
-    <row r="100" ht="12.75"/>
   </sheetData>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/TestData/Staging/Web_POS/Billing/add_to_cart_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Billing/add_to_cart_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Staging\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Store8</t>
+  </si>
+  <si>
+    <t>8906118412662 : 1</t>
   </si>
   <si>
     <t>TC_06</t>
@@ -481,8 +484,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="G4">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -797,7 +800,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>25</v>
@@ -820,7 +823,7 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
@@ -870,7 +873,7 @@
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -920,7 +923,7 @@
     </row>
     <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -970,7 +973,7 @@
     </row>
     <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>34</v>
@@ -1020,7 +1023,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -1047,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>25</v>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -1097,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>25</v>
@@ -1120,7 +1123,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>18</v>
@@ -1147,7 +1150,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>25</v>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>34</v>
@@ -1197,7 +1200,7 @@
         <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>25</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1247,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>25</v>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
@@ -1297,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>25</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -1370,7 +1373,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
